--- a/InternshipList.xlsx
+++ b/InternshipList.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679AA27E-7E62-4F81-A18E-9D6FFB39BC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57ABF8D-3D0F-4B78-96CB-DB2D7A5E376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="27">
   <si>
     <t>S.No.</t>
   </si>
@@ -39,72 +39,12 @@
     <t>Email ID</t>
   </si>
   <si>
-    <t>THIRUMAL RAVULA</t>
-  </si>
-  <si>
-    <t>ravikiransapient@gmail.com</t>
-  </si>
-  <si>
-    <t>MADHAVI PULIRAJU</t>
-  </si>
-  <si>
-    <t>SRIPATHI KAMMARI</t>
-  </si>
-  <si>
-    <t>SHIVA SHANKER NARIMALLA</t>
-  </si>
-  <si>
-    <t>SRAVANTHI BATTLAPENUMARTHI</t>
-  </si>
-  <si>
-    <t>SANCHITA DIXIT</t>
-  </si>
-  <si>
-    <t>PRIYA RAMACHANDRAN</t>
-  </si>
-  <si>
-    <t>SRAVANTHI MODEPU</t>
-  </si>
-  <si>
-    <t>SADHANA REDDY</t>
-  </si>
-  <si>
-    <t>ASHAY MAHESHWARI</t>
-  </si>
-  <si>
-    <t>LALIT MOHAN SANAGAVARAPU</t>
-  </si>
-  <si>
-    <t>REKHA SINGHAL</t>
-  </si>
-  <si>
-    <t>PVS MARUTHI RAO</t>
-  </si>
-  <si>
-    <t>RAGHUPATHI</t>
-  </si>
-  <si>
-    <t>P.RAVI SHANKAR</t>
-  </si>
-  <si>
-    <t>B.RAVIKIRAN</t>
-  </si>
-  <si>
-    <t>BALAMMA BOYA</t>
-  </si>
-  <si>
-    <t>REENA R.MADAMWAR</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
     <t>End Date</t>
   </si>
   <si>
-    <t>Date of issue</t>
-  </si>
-  <si>
     <t>Stipend</t>
   </si>
   <si>
@@ -115,6 +55,60 @@
   </si>
   <si>
     <t>30/06/2022</t>
+  </si>
+  <si>
+    <t>Student1</t>
+  </si>
+  <si>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>Student3</t>
+  </si>
+  <si>
+    <t>Student4</t>
+  </si>
+  <si>
+    <t>Student5</t>
+  </si>
+  <si>
+    <t>Student6</t>
+  </si>
+  <si>
+    <t>Student7</t>
+  </si>
+  <si>
+    <t>Student8</t>
+  </si>
+  <si>
+    <t>Student9</t>
+  </si>
+  <si>
+    <t>Student10</t>
+  </si>
+  <si>
+    <t>Student11</t>
+  </si>
+  <si>
+    <t>Student12</t>
+  </si>
+  <si>
+    <t>Student13</t>
+  </si>
+  <si>
+    <t>Student14</t>
+  </si>
+  <si>
+    <t>Student15</t>
+  </si>
+  <si>
+    <t>Student16</t>
+  </si>
+  <si>
+    <t>Student17</t>
+  </si>
+  <si>
+    <t>Student18</t>
   </si>
 </sst>
 </file>
@@ -124,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +170,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -258,9 +258,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -613,16 +613,15 @@
     <col min="4" max="4" width="29.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="8"/>
+    <col min="7" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -631,619 +630,473 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H1" s="10"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9490448747</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="10">
-        <f t="shared" ref="G2:G19" ca="1" si="0">TODAY()</f>
-        <v>44749</v>
-      </c>
-      <c r="H2" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H2" s="11"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9866188505</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H3" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H3" s="11"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9440739965</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H4" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H4" s="11"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>9533822996</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H5" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="11"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8897487405</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H6" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H6" s="11"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9923969160</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H7" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2">
-        <v>9949350745</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H8" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="11"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9705651490</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H9" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H9" s="11"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9160896546</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H10" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <v>8125300159</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H11" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H11" s="11"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9849986236</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H12" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9885173542</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H13" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>9052512020</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H14" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H14" s="11"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9491176251</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H15" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H15" s="11"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9177792945</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H16" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G16" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H16" s="11"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9959370059</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H17" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9703527689</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H18" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:13" s="7" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8712180614</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44749</v>
-      </c>
-      <c r="H19" s="2">
-        <v>15000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H19" s="11"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.16" right="0.18" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
